--- a/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>PO Number</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>WA Number</t>
+  </si>
+  <si>
+    <t>Recieive Quantity</t>
   </si>
 </sst>
 </file>
@@ -561,10 +573,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:BE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +584,7 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="23.875" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
@@ -591,43 +603,52 @@
     <col min="21" max="21" width="16" customWidth="1"/>
     <col min="22" max="22" width="28.625" customWidth="1"/>
     <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="24" width="16.375" customWidth="1"/>
-    <col min="25" max="25" width="16.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.625" customWidth="1"/>
-    <col min="27" max="27" width="12.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.125" customWidth="1"/>
-    <col min="30" max="30" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="12.625" customWidth="1"/>
-    <col min="32" max="32" width="12.75" customWidth="1"/>
-    <col min="33" max="33" width="14.125" customWidth="1"/>
-    <col min="34" max="34" width="14.75" customWidth="1"/>
-    <col min="35" max="35" width="16" customWidth="1"/>
-    <col min="36" max="36" width="15.875" customWidth="1"/>
-    <col min="37" max="37" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.625" customWidth="1"/>
-    <col min="39" max="39" width="16.375" customWidth="1"/>
-    <col min="40" max="40" width="16.75" customWidth="1"/>
-    <col min="41" max="41" width="12.25" customWidth="1"/>
-    <col min="42" max="43" width="13.625" customWidth="1"/>
-    <col min="44" max="44" width="19" customWidth="1"/>
-    <col min="45" max="46" width="16.625" customWidth="1"/>
+    <col min="24" max="26" width="16.375" customWidth="1"/>
+    <col min="27" max="27" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.625" customWidth="1"/>
+    <col min="29" max="29" width="18.375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="19.875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5" customWidth="1"/>
+    <col min="32" max="32" width="11.125" customWidth="1"/>
+    <col min="33" max="33" width="12.625" customWidth="1"/>
+    <col min="34" max="34" width="12.75" customWidth="1"/>
+    <col min="35" max="35" width="20" customWidth="1"/>
+    <col min="36" max="36" width="14.75" customWidth="1"/>
+    <col min="37" max="37" width="20.75" customWidth="1"/>
+    <col min="38" max="38" width="20.875" customWidth="1"/>
+    <col min="39" max="39" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.375" style="3" customWidth="1"/>
+    <col min="41" max="41" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.5" style="3" customWidth="1"/>
+    <col min="43" max="43" width="18.5" style="3" customWidth="1"/>
+    <col min="44" max="44" width="15.625" customWidth="1"/>
+    <col min="45" max="45" width="16.375" customWidth="1"/>
+    <col min="46" max="46" width="16.75" customWidth="1"/>
+    <col min="47" max="47" width="13" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.75" customWidth="1"/>
+    <col min="50" max="50" width="19" customWidth="1"/>
+    <col min="51" max="51" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="X2" s="1"/>
-      <c r="Y2"/>
+      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AA2"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -638,26 +659,32 @@
         <v>51</v>
       </c>
       <c r="X3" s="1"/>
-      <c r="Y3"/>
+      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AA3"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="X4" s="1"/>
-      <c r="Y4"/>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AA4"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5"/>
+      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AA5"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -668,31 +695,39 @@
         <v>51</v>
       </c>
       <c r="X6" s="1"/>
-      <c r="Y6"/>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AA6"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="X7" s="1"/>
-      <c r="Y7"/>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AA7"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="1"/>
-      <c r="Y8"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AA8"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="X9" s="1"/>
-      <c r="Y9"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA9"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -766,79 +801,98 @@
         <v>35</v>
       </c>
       <c r="Y10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AC10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AD10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AE10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AG10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="7" t="s">
+      <c r="AH10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AJ10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AI10" s="4" t="s">
+      <c r="AK10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AN10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AM10" s="4" t="s">
+      <c r="AS10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AT10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AO10" s="4" t="s">
+      <c r="AU10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AP10" s="4" t="s">
+      <c r="AV10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AQ10" s="4" t="s">
+      <c r="AW10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AR10" s="4" t="s">
+      <c r="AX10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AS10" s="4" t="s">
+      <c r="AY10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AT10" s="4" t="s">
+      <c r="AZ10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AU10" s="4" t="s">
+      <c r="BA10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AY10" s="4" t="s">
+      <c r="BE10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\invoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\111\gg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>PO Number</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Recieive Quantity</t>
+  </si>
+  <si>
+    <t>INV.Plan Description</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BE10"/>
+  <dimension ref="A1:BF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AQ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,40 +608,41 @@
     <col min="23" max="23" width="16.875" customWidth="1"/>
     <col min="24" max="26" width="16.375" customWidth="1"/>
     <col min="27" max="27" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.625" customWidth="1"/>
-    <col min="29" max="29" width="18.375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="19.875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5" customWidth="1"/>
-    <col min="32" max="32" width="11.125" customWidth="1"/>
-    <col min="33" max="33" width="12.625" customWidth="1"/>
-    <col min="34" max="34" width="12.75" customWidth="1"/>
-    <col min="35" max="35" width="20" customWidth="1"/>
-    <col min="36" max="36" width="14.75" customWidth="1"/>
-    <col min="37" max="37" width="20.75" customWidth="1"/>
-    <col min="38" max="38" width="20.875" customWidth="1"/>
-    <col min="39" max="39" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.375" style="3" customWidth="1"/>
-    <col min="41" max="41" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.5" style="3" customWidth="1"/>
-    <col min="43" max="43" width="18.5" style="3" customWidth="1"/>
-    <col min="44" max="44" width="15.625" customWidth="1"/>
-    <col min="45" max="45" width="16.375" customWidth="1"/>
-    <col min="46" max="46" width="16.75" customWidth="1"/>
-    <col min="47" max="47" width="13" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.75" customWidth="1"/>
-    <col min="50" max="50" width="19" customWidth="1"/>
-    <col min="51" max="51" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="18.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19.875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5" customWidth="1"/>
+    <col min="33" max="33" width="11.125" customWidth="1"/>
+    <col min="34" max="34" width="12.625" customWidth="1"/>
+    <col min="35" max="35" width="12.75" customWidth="1"/>
+    <col min="36" max="36" width="20" customWidth="1"/>
+    <col min="37" max="37" width="14.75" customWidth="1"/>
+    <col min="38" max="38" width="20.75" customWidth="1"/>
+    <col min="39" max="39" width="20.875" customWidth="1"/>
+    <col min="40" max="40" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.5" style="3" customWidth="1"/>
+    <col min="44" max="44" width="18.5" style="3" customWidth="1"/>
+    <col min="45" max="45" width="15.625" customWidth="1"/>
+    <col min="46" max="46" width="16.375" customWidth="1"/>
+    <col min="47" max="47" width="16.75" customWidth="1"/>
+    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.75" customWidth="1"/>
+    <col min="51" max="51" width="19" customWidth="1"/>
+    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -646,9 +650,10 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2"/>
-      <c r="AB2" s="1"/>
+      <c r="AB2"/>
+      <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -662,9 +667,10 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3"/>
-      <c r="AB3" s="1"/>
+      <c r="AB3"/>
+      <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -672,9 +678,10 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4"/>
-      <c r="AB4" s="1"/>
+      <c r="AB4"/>
+      <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -682,9 +689,10 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5"/>
+      <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -698,9 +706,10 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6"/>
-      <c r="AB6" s="1"/>
+      <c r="AB6"/>
+      <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -708,9 +717,10 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7"/>
-      <c r="AB7" s="1"/>
+      <c r="AB7"/>
+      <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -718,16 +728,18 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8"/>
-      <c r="AB8" s="1"/>
+      <c r="AB8"/>
+      <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9"/>
-      <c r="AB9" s="1"/>
+      <c r="AB9"/>
+      <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -810,84 +822,87 @@
         <v>32</v>
       </c>
       <c r="AB10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AD10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AE10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AF10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AG10" s="7" t="s">
+      <c r="AH10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AI10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AI10" s="4" t="s">
+      <c r="AJ10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AK10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AM10" s="4" t="s">
+      <c r="AN10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AN10" s="5" t="s">
+      <c r="AO10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AO10" s="5" t="s">
+      <c r="AP10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AP10" s="5" t="s">
+      <c r="AQ10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AQ10" s="5" t="s">
+      <c r="AR10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AR10" s="4" t="s">
+      <c r="AS10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AS10" s="4" t="s">
+      <c r="AT10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AT10" s="4" t="s">
+      <c r="AU10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AU10" s="4" t="s">
+      <c r="AV10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AV10" s="4" t="s">
+      <c r="AW10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AW10" s="4" t="s">
+      <c r="AX10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AX10" s="4" t="s">
+      <c r="AY10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AY10" s="4" t="s">
+      <c r="AZ10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AZ10" s="4" t="s">
+      <c r="BA10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BA10" s="4" t="s">
+      <c r="BB10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BE10" s="4" t="s">
+      <c r="BF10" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\111\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>PO Number</t>
   </si>
@@ -186,6 +186,21 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>WA Number</t>
+  </si>
+  <si>
+    <t>Recieive Quantity</t>
+  </si>
+  <si>
+    <t>INV.Plan Description</t>
   </si>
 </sst>
 </file>
@@ -561,18 +576,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:BF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="23.875" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
@@ -591,43 +604,54 @@
     <col min="21" max="21" width="16" customWidth="1"/>
     <col min="22" max="22" width="28.625" customWidth="1"/>
     <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="24" width="16.375" customWidth="1"/>
-    <col min="25" max="25" width="16.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.625" customWidth="1"/>
-    <col min="27" max="27" width="12.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.125" customWidth="1"/>
-    <col min="30" max="30" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="12.625" customWidth="1"/>
-    <col min="32" max="32" width="12.75" customWidth="1"/>
-    <col min="33" max="33" width="14.125" customWidth="1"/>
-    <col min="34" max="34" width="14.75" customWidth="1"/>
-    <col min="35" max="35" width="16" customWidth="1"/>
-    <col min="36" max="36" width="15.875" customWidth="1"/>
-    <col min="37" max="37" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.625" customWidth="1"/>
-    <col min="39" max="39" width="16.375" customWidth="1"/>
-    <col min="40" max="40" width="16.75" customWidth="1"/>
-    <col min="41" max="41" width="12.25" customWidth="1"/>
-    <col min="42" max="43" width="13.625" customWidth="1"/>
-    <col min="44" max="44" width="19" customWidth="1"/>
-    <col min="45" max="46" width="16.625" customWidth="1"/>
+    <col min="24" max="26" width="16.375" customWidth="1"/>
+    <col min="27" max="27" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="18.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19.875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5" customWidth="1"/>
+    <col min="33" max="33" width="11.125" customWidth="1"/>
+    <col min="34" max="34" width="12.625" customWidth="1"/>
+    <col min="35" max="35" width="12.75" customWidth="1"/>
+    <col min="36" max="36" width="20" customWidth="1"/>
+    <col min="37" max="37" width="14.75" customWidth="1"/>
+    <col min="38" max="38" width="20.75" customWidth="1"/>
+    <col min="39" max="39" width="20.875" customWidth="1"/>
+    <col min="40" max="40" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.5" style="3" customWidth="1"/>
+    <col min="44" max="44" width="18.5" style="3" customWidth="1"/>
+    <col min="45" max="45" width="15.625" customWidth="1"/>
+    <col min="46" max="46" width="16.375" customWidth="1"/>
+    <col min="47" max="47" width="16.75" customWidth="1"/>
+    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.75" customWidth="1"/>
+    <col min="51" max="51" width="19" customWidth="1"/>
+    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="X2" s="1"/>
-      <c r="Y2"/>
+      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -638,26 +662,35 @@
         <v>51</v>
       </c>
       <c r="X3" s="1"/>
-      <c r="Y3"/>
+      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="X4" s="1"/>
-      <c r="Y4"/>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="X5" s="1"/>
-      <c r="Y5"/>
+      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -668,31 +701,43 @@
         <v>51</v>
       </c>
       <c r="X6" s="1"/>
-      <c r="Y6"/>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="X7" s="1"/>
-      <c r="Y7"/>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="1"/>
-      <c r="Y8"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="X9" s="1"/>
-      <c r="Y9"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -766,79 +811,101 @@
         <v>35</v>
       </c>
       <c r="Y10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AD10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AE10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AF10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AH10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="7" t="s">
+      <c r="AI10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AJ10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AK10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AI10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AN10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AO10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AM10" s="4" t="s">
+      <c r="AT10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AU10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AO10" s="4" t="s">
+      <c r="AV10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AP10" s="4" t="s">
+      <c r="AW10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AQ10" s="4" t="s">
+      <c r="AX10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AR10" s="4" t="s">
+      <c r="AY10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AS10" s="4" t="s">
+      <c r="AZ10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AT10" s="4" t="s">
+      <c r="BA10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AU10" s="4" t="s">
+      <c r="BB10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AY10" s="4" t="s">
+      <c r="BF10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\xls file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>PO Number</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Contract End Date</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Installment</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Fund</t>
   </si>
   <si>
-    <t>Exchange Rate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amount </t>
   </si>
   <si>
@@ -201,6 +195,24 @@
   </si>
   <si>
     <t>INV.Plan Description</t>
+  </si>
+  <si>
+    <t>Exchange Rate PO</t>
+  </si>
+  <si>
+    <t>Acceptance Date</t>
+  </si>
+  <si>
+    <t>Exchange Rate KV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO State </t>
+  </si>
+  <si>
+    <t>PO Close</t>
+  </si>
+  <si>
+    <t>InvoicePlan status</t>
   </si>
 </sst>
 </file>
@@ -576,9 +588,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BF10"/>
+  <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BH10" sqref="BH10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -635,14 +649,14 @@
     <col min="54" max="54" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -651,15 +665,15 @@
       <c r="AB2"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -668,7 +682,7 @@
       <c r="AB3"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -679,9 +693,9 @@
       <c r="AB4"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -690,15 +704,15 @@
       <c r="AB5"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -707,9 +721,9 @@
       <c r="AB6"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -718,7 +732,7 @@
       <c r="AB7"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -729,7 +743,7 @@
       <c r="AB8"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -737,7 +751,7 @@
       <c r="AB9"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -760,10 +774,10 @@
         <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>12</v>
@@ -772,10 +786,10 @@
         <v>30</v>
       </c>
       <c r="L10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>26</v>
@@ -787,10 +801,10 @@
         <v>19</v>
       </c>
       <c r="Q10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>21</v>
@@ -805,22 +819,22 @@
         <v>24</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>2</v>
@@ -829,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF10" s="7" t="s">
         <v>5</v>
@@ -841,13 +855,13 @@
         <v>7</v>
       </c>
       <c r="AI10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AK10" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AL10" s="4" t="s">
         <v>14</v>
@@ -859,49 +873,61 @@
         <v>9</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AP10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AR10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AS10" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="AT10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AU10" s="4" t="s">
+      <c r="AV10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AV10" s="4" t="s">
+      <c r="AW10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AW10" s="4" t="s">
+      <c r="AX10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AX10" s="4" t="s">
+      <c r="AY10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AY10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB10" s="4" t="s">
+      <c r="BD10" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="BE10" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="BF10" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="BG10" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\xls file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\000\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>PO Number</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>PO Contract</t>
+  </si>
+  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -164,55 +167,46 @@
     <t>Org.</t>
   </si>
   <si>
+    <t>Account</t>
+  </si>
+  <si>
     <t>Deposit</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>WA Number</t>
+  </si>
+  <si>
+    <t>Recieive Quantity</t>
+  </si>
+  <si>
+    <t>INV.Plan Description</t>
+  </si>
+  <si>
+    <t>Exchange Rate PO</t>
+  </si>
+  <si>
+    <t>Acceptance Date</t>
+  </si>
+  <si>
+    <t>Exchange Rate KV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO State </t>
+  </si>
+  <si>
+    <t>PO Close</t>
+  </si>
+  <si>
+    <t>InvoicePlan status</t>
+  </si>
+  <si>
     <t>Purchase no Invoice Plan Report</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>PO Contract</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>WA Number</t>
-  </si>
-  <si>
-    <t>Recieive Quantity</t>
-  </si>
-  <si>
-    <t>INV.Plan Description</t>
-  </si>
-  <si>
-    <t>Exchange Rate PO</t>
-  </si>
-  <si>
-    <t>Acceptance Date</t>
-  </si>
-  <si>
-    <t>Exchange Rate KV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO State </t>
-  </si>
-  <si>
-    <t>PO Close</t>
-  </si>
-  <si>
-    <t>InvoicePlan status</t>
   </si>
 </sst>
 </file>
@@ -222,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,12 +251,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,15 +269,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -297,17 +284,23 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Comma 5 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Normal 6 2" xfId="1"/>
     <cellStyle name="Normal 7" xfId="3"/>
   </cellStyles>
@@ -590,73 +583,57 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BH10" sqref="BH10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="29.875" customWidth="1"/>
-    <col min="14" max="14" width="16.75" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
-    <col min="16" max="16" width="30.625" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
-    <col min="18" max="18" width="34.875" customWidth="1"/>
-    <col min="19" max="19" width="25.75" customWidth="1"/>
-    <col min="20" max="20" width="15.875" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="28.625" customWidth="1"/>
-    <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="26" width="16.375" customWidth="1"/>
-    <col min="27" max="27" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.75" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="18.375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="19.875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5" customWidth="1"/>
-    <col min="33" max="33" width="11.125" customWidth="1"/>
-    <col min="34" max="34" width="12.625" customWidth="1"/>
-    <col min="35" max="35" width="12.75" customWidth="1"/>
-    <col min="36" max="36" width="20" customWidth="1"/>
-    <col min="37" max="37" width="14.75" customWidth="1"/>
-    <col min="38" max="38" width="20.75" customWidth="1"/>
-    <col min="39" max="39" width="20.875" customWidth="1"/>
-    <col min="40" max="40" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.375" style="3" customWidth="1"/>
-    <col min="42" max="42" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5" style="3" customWidth="1"/>
-    <col min="44" max="44" width="18.5" style="3" customWidth="1"/>
-    <col min="45" max="45" width="15.625" customWidth="1"/>
-    <col min="46" max="46" width="16.375" customWidth="1"/>
-    <col min="47" max="47" width="16.75" customWidth="1"/>
-    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.75" customWidth="1"/>
-    <col min="51" max="51" width="19" customWidth="1"/>
-    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="2" customWidth="1"/>
+    <col min="13" max="18" width="42.375" customWidth="1"/>
+    <col min="19" max="19" width="16.25" customWidth="1"/>
+    <col min="20" max="20" width="42.375" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="23" width="42.375" customWidth="1"/>
+    <col min="24" max="24" width="14.75" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
+    <col min="26" max="26" width="16.25" customWidth="1"/>
+    <col min="27" max="27" width="12.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="42.375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.25" customWidth="1"/>
+    <col min="30" max="31" width="16.25" style="1" customWidth="1"/>
+    <col min="32" max="41" width="16.25" customWidth="1"/>
+    <col min="42" max="42" width="16.625" customWidth="1"/>
+    <col min="43" max="43" width="17.875" customWidth="1"/>
+    <col min="44" max="49" width="16.25" customWidth="1"/>
+    <col min="50" max="50" width="21.875" customWidth="1"/>
+    <col min="51" max="51" width="17.875" customWidth="1"/>
+    <col min="52" max="53" width="16.25" customWidth="1"/>
+    <col min="54" max="54" width="9.875" customWidth="1"/>
+    <col min="55" max="55" width="23" customWidth="1"/>
+    <col min="56" max="56" width="10.25" customWidth="1"/>
+    <col min="57" max="57" width="16.25" customWidth="1"/>
+    <col min="58" max="58" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -667,14 +644,10 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="3"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -686,6 +659,8 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="D4"/>
+      <c r="E4" s="3"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -695,8 +670,10 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" s="3"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -706,14 +683,10 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" s="3"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -723,7 +696,7 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -751,187 +724,186 @@
       <c r="AB9"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:59" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="6" t="s">
+      <c r="AW10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="AY10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK10" s="7" t="s">
+      <c r="BE10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AL10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP10" s="5" t="s">
+      <c r="BF10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AQ10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY10" s="4" t="s">
+      <c r="BG10" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_purchase_no_invoice_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aommy\pabi_file\000\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>PO Number</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>PO Contract</t>
+  </si>
+  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
     <t>Contract End Date</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Installment</t>
   </si>
   <si>
@@ -155,9 +155,6 @@
     <t>Fund</t>
   </si>
   <si>
-    <t>Exchange Rate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amount </t>
   </si>
   <si>
@@ -170,37 +167,46 @@
     <t>Org.</t>
   </si>
   <si>
+    <t>Account</t>
+  </si>
+  <si>
     <t>Deposit</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>WA Number</t>
+  </si>
+  <si>
+    <t>Recieive Quantity</t>
+  </si>
+  <si>
+    <t>INV.Plan Description</t>
+  </si>
+  <si>
+    <t>Exchange Rate PO</t>
+  </si>
+  <si>
+    <t>Acceptance Date</t>
+  </si>
+  <si>
+    <t>Exchange Rate KV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO State </t>
+  </si>
+  <si>
+    <t>PO Close</t>
+  </si>
+  <si>
+    <t>InvoicePlan status</t>
+  </si>
+  <si>
     <t>Purchase no Invoice Plan Report</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>PO Contract</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>WA Number</t>
-  </si>
-  <si>
-    <t>Recieive Quantity</t>
-  </si>
-  <si>
-    <t>INV.Plan Description</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,12 +251,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,15 +269,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -285,17 +284,23 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Comma 5 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Normal 6 2" xfId="1"/>
     <cellStyle name="Normal 7" xfId="3"/>
   </cellStyles>
@@ -576,73 +581,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BF10"/>
+  <dimension ref="A1:BG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="29.875" customWidth="1"/>
-    <col min="14" max="14" width="16.75" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
-    <col min="16" max="16" width="30.625" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
-    <col min="18" max="18" width="34.875" customWidth="1"/>
-    <col min="19" max="19" width="25.75" customWidth="1"/>
-    <col min="20" max="20" width="15.875" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="28.625" customWidth="1"/>
-    <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="26" width="16.375" customWidth="1"/>
-    <col min="27" max="27" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.75" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="18.375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="19.875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5" customWidth="1"/>
-    <col min="33" max="33" width="11.125" customWidth="1"/>
-    <col min="34" max="34" width="12.625" customWidth="1"/>
-    <col min="35" max="35" width="12.75" customWidth="1"/>
-    <col min="36" max="36" width="20" customWidth="1"/>
-    <col min="37" max="37" width="14.75" customWidth="1"/>
-    <col min="38" max="38" width="20.75" customWidth="1"/>
-    <col min="39" max="39" width="20.875" customWidth="1"/>
-    <col min="40" max="40" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.375" style="3" customWidth="1"/>
-    <col min="42" max="42" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5" style="3" customWidth="1"/>
-    <col min="44" max="44" width="18.5" style="3" customWidth="1"/>
-    <col min="45" max="45" width="15.625" customWidth="1"/>
-    <col min="46" max="46" width="16.375" customWidth="1"/>
-    <col min="47" max="47" width="16.75" customWidth="1"/>
-    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.75" customWidth="1"/>
-    <col min="51" max="51" width="19" customWidth="1"/>
-    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="2" customWidth="1"/>
+    <col min="13" max="18" width="42.375" customWidth="1"/>
+    <col min="19" max="19" width="16.25" customWidth="1"/>
+    <col min="20" max="20" width="42.375" customWidth="1"/>
+    <col min="21" max="21" width="16.25" customWidth="1"/>
+    <col min="22" max="23" width="42.375" customWidth="1"/>
+    <col min="24" max="24" width="14.75" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
+    <col min="26" max="26" width="16.25" customWidth="1"/>
+    <col min="27" max="27" width="12.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="42.375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.25" customWidth="1"/>
+    <col min="30" max="31" width="16.25" style="1" customWidth="1"/>
+    <col min="32" max="41" width="16.25" customWidth="1"/>
+    <col min="42" max="42" width="16.625" customWidth="1"/>
+    <col min="43" max="43" width="17.875" customWidth="1"/>
+    <col min="44" max="49" width="16.25" customWidth="1"/>
+    <col min="50" max="50" width="21.875" customWidth="1"/>
+    <col min="51" max="51" width="17.875" customWidth="1"/>
+    <col min="52" max="53" width="16.25" customWidth="1"/>
+    <col min="54" max="54" width="9.875" customWidth="1"/>
+    <col min="55" max="55" width="23" customWidth="1"/>
+    <col min="56" max="56" width="10.25" customWidth="1"/>
+    <col min="57" max="57" width="16.25" customWidth="1"/>
+    <col min="58" max="58" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -651,16 +640,12 @@
       <c r="AB2"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="3"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -668,10 +653,12 @@
       <c r="AB3"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="D4"/>
+      <c r="E4" s="3"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -679,10 +666,12 @@
       <c r="AB4"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" s="3"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -690,16 +679,12 @@
       <c r="AB5"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
+      <c r="D6"/>
+      <c r="E6" s="3"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -707,9 +692,9 @@
       <c r="AB6"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -718,7 +703,7 @@
       <c r="AB7"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -729,7 +714,7 @@
       <c r="AB8"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -737,175 +722,186 @@
       <c r="AB9"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:59" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="6" t="s">
+      <c r="AW10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="AY10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB10" s="4" t="s">
+      <c r="BE10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AC10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>31</v>
+      <c r="BG10" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>